--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2477.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2477.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.180243434714097</v>
+        <v>1.680891275405884</v>
       </c>
       <c r="B1">
-        <v>2.820177334541311</v>
+        <v>2.100168228149414</v>
       </c>
       <c r="C1">
-        <v>5.794965980600485</v>
+        <v>5.103261947631836</v>
       </c>
       <c r="D1">
-        <v>3.81778782336936</v>
+        <v>1.397628664970398</v>
       </c>
       <c r="E1">
-        <v>1.251058687562991</v>
+        <v>0.6636487245559692</v>
       </c>
     </row>
   </sheetData>
